--- a/src/analysis_examples/circadb/results_jtk/cosinor_10358666_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10358666_hmcn1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.17627610991777418, 0.25288933824633]</t>
+          <t>[0.17571152010317287, 0.2534539280609313]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.255606729699821e-10</v>
+        <v>1.640443336725639e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.255606729699821e-10</v>
+        <v>1.640443336725639e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.704421175579693</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.5157369321208458]</t>
+          <t>[-0.8805264694746171, -0.5283158816847688]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.326747653962457e-07</v>
+        <v>4.379730134118631e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.326747653962457e-07</v>
+        <v>4.379730134118631e-08</v>
       </c>
       <c r="S2" t="n">
         <v>0.3530065506258625</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3329698140579601, 0.3730432871937649]</t>
+          <t>[0.33298020413003787, 0.37303289712168713]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.849889889889983</v>
       </c>
       <c r="X2" t="n">
-        <v>2.086526526526591</v>
+        <v>2.137417417417484</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.613253253253375</v>
+        <v>3.562362362362482</v>
       </c>
     </row>
   </sheetData>
